--- a/Manuscript_items/Table_S4.xlsx
+++ b/Manuscript_items/Table_S4.xlsx
@@ -270,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,30 +278,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,1421 +629,1451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>2007</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>2007</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="12">
         <v>0.74</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>2007</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="12">
         <v>1.3</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>2007</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>0.84</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>2009</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>1.06</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>2009</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>0.76</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>2009</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="12">
         <v>1.22</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>2009</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>0.78</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>2011</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>1.05</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>2011</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>0.66</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>2011</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="12">
         <v>1.24</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>2011</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="12">
         <v>0.71</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>2013</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="12">
         <v>1.08</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>2013</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <v>0.72</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>2013</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <v>1.25</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>2013</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <v>0.82</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="11">
         <v>2015</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="11">
         <v>2015</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <v>0.6</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="11">
         <v>2015</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="12">
         <v>1.32</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>2015</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <v>0.85</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>2017</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="12">
         <v>1.19</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>2017</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <v>0.78</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="11">
         <v>2017</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="12">
         <v>1.47</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" t="s">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="11">
         <v>2017</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <v>0.82</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="11">
         <v>2008</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="12">
         <v>1.82</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>2008</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <v>1.22</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>2008</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="12">
         <v>2.14</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>2008</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="12">
         <v>1.26</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="11">
         <v>2010</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="12">
         <v>1.84</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="11">
         <v>2010</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="12">
         <v>1.18</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="11">
         <v>2010</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="12">
         <v>2.16</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="11">
         <v>2010</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="12">
         <v>1.24</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="11">
         <v>2012</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="12">
         <v>1.92</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" t="s">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="11">
         <v>2012</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="12">
         <v>1.18</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="11">
         <v>2012</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="12">
         <v>2.27</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="11">
         <v>2012</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="12">
         <v>1.39</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="11">
         <v>2014</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="12">
         <v>2.02</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="11">
         <v>2014</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="12">
         <v>1.34</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="11">
         <v>2014</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="11">
         <v>2014</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="12">
         <v>1.4</v>
       </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="11">
         <v>2016</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="12">
         <v>1.85</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="11">
         <v>2016</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="12">
         <v>1.04</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="11">
         <v>2016</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="12">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" t="s">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="11">
         <v>2016</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="12">
         <v>1.4</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" t="s">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="11">
         <v>2018</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="12">
         <v>2.09</v>
       </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" t="s">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="11">
         <v>2018</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="12">
         <v>1.37</v>
       </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="11">
         <v>2018</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="12">
         <v>2.59</v>
       </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" t="s">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="11">
         <v>2018</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="12">
         <v>1.54</v>
       </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="11">
         <v>2007</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="12">
         <v>2.94</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" t="s">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="11">
         <v>2007</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="12">
         <v>2.13</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" t="s">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="11">
         <v>2007</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="12">
         <v>3.41</v>
       </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" t="s">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="11">
         <v>2007</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="12">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="11">
         <v>2009</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="12">
         <v>2.79</v>
       </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="11">
         <v>2009</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="12">
         <v>2.06</v>
       </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="11">
         <v>2009</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="12">
         <v>3.29</v>
       </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="11">
         <v>2009</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="12">
         <v>1.7</v>
       </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="11">
         <v>2011</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="12">
         <v>2.81</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" t="s">
+      <c r="H59" s="4"/>
+      <c r="I59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="11">
         <v>2011</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="12">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="11">
         <v>2011</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="12">
         <v>3.33</v>
       </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" t="s">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="11">
         <v>2011</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="12">
         <v>1.81</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" t="s">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="11">
         <v>2013</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="12">
         <v>2.85</v>
       </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" t="s">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="11">
         <v>2013</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="12">
         <v>2.08</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="11">
         <v>2013</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="12">
         <v>3.43</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="11">
         <v>2013</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="12">
         <v>1.74</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" t="s">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="11">
         <v>2015</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="12">
         <v>2.73</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="11">
         <v>2015</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="12">
         <v>1.63</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="11">
         <v>2015</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="12">
         <v>3.33</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="11">
         <v>2015</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="12">
         <v>1.91</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="11">
         <v>2017</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="12">
         <v>3.13</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="11">
         <v>2017</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="12">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="11">
         <v>2017</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="12">
         <v>3.9</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" t="s">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="11">
         <v>2017</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
